--- a/Drom.WPF/ОтчетОПродажахШаблон.xlsx
+++ b/Drom.WPF/ОтчетОПродажахШаблон.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrey\RiderProjects\Drom\Drom.WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A096E-78A1-47F1-9E3A-6FC53F0F2F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF861BD1-83F0-4139-8E42-CFB398061BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="3480" windowWidth="13395" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Items">Лист1!$A$5:$F$6</definedName>
+    <definedName name="Items">Лист1!$A$5:$E$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -427,26 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -456,17 +456,16 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -476,14 +475,13 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
